--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
-    <sheet name="Statistics" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Ideas" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Ideas" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="115">
   <si>
     <t>Notes</t>
   </si>
@@ -261,9 +260,6 @@
     <t>lat=35&amp;lon=139</t>
   </si>
   <si>
-    <t>valid coordinates which don't have name for city</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -271,13 +267,154 @@
   </si>
   <si>
     <t>need to investigate</t>
+  </si>
+  <si>
+    <t>Help:</t>
+  </si>
+  <si>
+    <t>https://openweathermap.org/current</t>
+  </si>
+  <si>
+    <t>By ZIP code</t>
+  </si>
+  <si>
+    <t>exist ZIP code</t>
+  </si>
+  <si>
+    <t>zip=94040,us</t>
+  </si>
+  <si>
+    <t>nonexistent ZIP code, the error message: city not found</t>
+  </si>
+  <si>
+    <t>zip=941040,us</t>
+  </si>
+  <si>
+    <t>Call current weather data for several cities</t>
+  </si>
+  <si>
+    <t>Cities within a rectangle zone</t>
+  </si>
+  <si>
+    <t>a valid rectangle zone</t>
+  </si>
+  <si>
+    <t>a invalid rectangle zone</t>
+  </si>
+  <si>
+    <t>Cities in cycle</t>
+  </si>
+  <si>
+    <t>Call for several city IDs</t>
+  </si>
+  <si>
+    <t>C001</t>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>C003</t>
+  </si>
+  <si>
+    <t>C004</t>
+  </si>
+  <si>
+    <t>C005</t>
+  </si>
+  <si>
+    <t>C006</t>
+  </si>
+  <si>
+    <t>C007</t>
+  </si>
+  <si>
+    <t>C008</t>
+  </si>
+  <si>
+    <t>C009</t>
+  </si>
+  <si>
+    <t>OL001</t>
+  </si>
+  <si>
+    <t>SL001</t>
+  </si>
+  <si>
+    <t>valid parameters</t>
+  </si>
+  <si>
+    <t>invalid parameters</t>
+  </si>
+  <si>
+    <t>OL002</t>
+  </si>
+  <si>
+    <t>OL003</t>
+  </si>
+  <si>
+    <t>OL004</t>
+  </si>
+  <si>
+    <t>OL005</t>
+  </si>
+  <si>
+    <t>OL006</t>
+  </si>
+  <si>
+    <t>OL007</t>
+  </si>
+  <si>
+    <t>OL008</t>
+  </si>
+  <si>
+    <t>OL009</t>
+  </si>
+  <si>
+    <t>OL010</t>
+  </si>
+  <si>
+    <t>OL011</t>
+  </si>
+  <si>
+    <t>OL012</t>
+  </si>
+  <si>
+    <t>OL013</t>
+  </si>
+  <si>
+    <t>OL014</t>
+  </si>
+  <si>
+    <t>OL015</t>
+  </si>
+  <si>
+    <t>OL016</t>
+  </si>
+  <si>
+    <t>SL002</t>
+  </si>
+  <si>
+    <t>SL003</t>
+  </si>
+  <si>
+    <t>SL004</t>
+  </si>
+  <si>
+    <t>SL005</t>
+  </si>
+  <si>
+    <t>SL006</t>
+  </si>
+  <si>
+    <t>valid coordinates which don't have name for a city</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +505,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -419,10 +564,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -478,8 +624,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -763,22 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R145"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +1024,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -907,30 +1043,18 @@
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -943,16 +1067,14 @@
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -965,22 +1087,30 @@
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="1"/>
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -993,22 +1123,16 @@
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="1"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1022,20 +1146,20 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
+      <c r="B10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="16"/>
+      <c r="F10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="15"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1048,13 +1172,15 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>29</v>
@@ -1077,13 +1203,23 @@
       <c r="R11" s="4"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="16"/>
       <c r="H12" s="1"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1096,16 +1232,24 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="11"/>
+    <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="16"/>
       <c r="H13" s="1"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1120,18 +1264,12 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="15"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1146,18 +1284,14 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="3">
-        <v>59</v>
+      <c r="B15" s="11"/>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="17"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1171,19 +1305,21 @@
       <c r="R15" s="4"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="3">
-        <v>60</v>
+      <c r="A16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="17"/>
+      <c r="F16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="15"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1197,19 +1333,21 @@
       <c r="R16" s="4"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="3">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="16"/>
+      <c r="F17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="17"/>
       <c r="H17" s="1"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1223,19 +1361,21 @@
       <c r="R17" s="4"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="3">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="16"/>
+      <c r="F18" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="17"/>
       <c r="H18" s="1"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1249,12 +1389,20 @@
       <c r="R18" s="4"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3">
+        <v>61</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="16"/>
+      <c r="F19" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="G19" s="16"/>
       <c r="H19" s="1"/>
       <c r="I19" s="4"/>
@@ -1269,14 +1417,20 @@
       <c r="R19" s="4"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
+      <c r="A20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3">
+        <v>200</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="16"/>
+      <c r="F20" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="G20" s="16"/>
       <c r="H20" s="1"/>
       <c r="I20" s="4"/>
@@ -1290,24 +1444,14 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="1"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1323,7 +1467,9 @@
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="16"/>
@@ -1340,14 +1486,26 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
+    <row r="23" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
+      <c r="F23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1362,12 +1520,12 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="11"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="3"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
       <c r="H24" s="1"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1381,16 +1539,14 @@
       <c r="R24" s="4"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -1404,10 +1560,8 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1425,16 +1579,16 @@
       <c r="R26" s="4"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -1448,24 +1602,14 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -1478,26 +1622,16 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -1511,12 +1645,14 @@
       <c r="R29" s="4"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="14" t="s">
-        <v>22</v>
+      <c r="A30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>29</v>
@@ -1528,7 +1664,7 @@
         <v>23</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="4"/>
@@ -1542,13 +1678,15 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="14" t="s">
-        <v>22</v>
+    <row r="31" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>29</v>
@@ -1559,8 +1697,8 @@
       <c r="F31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>42</v>
+      <c r="G31" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="4"/>
@@ -1574,13 +1712,15 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="B32" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>29</v>
@@ -1591,8 +1731,8 @@
       <c r="F32" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>41</v>
+      <c r="G32" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="4"/>
@@ -1606,29 +1746,29 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="13" t="s">
-        <v>21</v>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="F33" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="1"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -1641,20 +1781,26 @@
       <c r="R33" s="4"/>
     </row>
     <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="B34" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="16" t="s">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="4"/>
@@ -1668,27 +1814,31 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="12" t="s">
-        <v>20</v>
+    <row r="35" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>29</v>
+        <v>53</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="1"/>
+      <c r="F35" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -1700,25 +1850,23 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="12" t="s">
-        <v>20</v>
+    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="4"/>
@@ -1732,13 +1880,15 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="13" t="s">
-        <v>21</v>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>29</v>
@@ -1746,11 +1896,11 @@
       <c r="E37" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="16" t="s">
-        <v>24</v>
+      <c r="F37" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="4"/>
@@ -1765,13 +1915,27 @@
       <c r="R37" s="4"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -1784,16 +1948,28 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+    <row r="39" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -1808,24 +1984,12 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="23">
-        <v>1521379</v>
-      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -1840,24 +2004,14 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="23">
-        <v>15213555579</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -1871,13 +2025,27 @@
       <c r="R41" s="4"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="23">
+        <v>1521379</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -1891,15 +2059,27 @@
       <c r="R42" s="4"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="23">
+        <v>15213555579</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -1914,24 +2094,12 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -1946,27 +2114,15 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -1979,14 +2135,28 @@
       <c r="R45" s="4"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="A46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" s="1"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -1999,14 +2169,30 @@
       <c r="R46" s="4"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="A47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -2041,7 +2227,9 @@
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="C49" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -2059,13 +2247,27 @@
       <c r="R49" s="4"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="A50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H50" s="3"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -2078,14 +2280,28 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+    <row r="51" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="H51" s="3"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -2141,7 +2357,9 @@
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="C54" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -2161,7 +2379,9 @@
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -2179,12 +2399,24 @@
       <c r="R55" s="4"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="A56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="4"/>
@@ -2199,12 +2431,20 @@
       <c r="R56" s="4"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="A57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
+      <c r="F57" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="4"/>
@@ -2241,7 +2481,9 @@
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -2259,12 +2501,20 @@
       <c r="R59" s="4"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+      <c r="A60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+      <c r="F60" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="4"/>
@@ -2279,12 +2529,20 @@
       <c r="R60" s="4"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="A61" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+      <c r="F61" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="4"/>
@@ -2321,7 +2579,9 @@
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -2339,12 +2599,20 @@
       <c r="R63" s="4"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="A64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
+      <c r="F64" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="4"/>
@@ -2359,12 +2627,20 @@
       <c r="R64" s="4"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="A65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+      <c r="F65" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="4"/>
@@ -2656,6 +2932,7 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
@@ -2675,6 +2952,7 @@
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
@@ -3076,6 +3354,14 @@
       <c r="Q101" s="4"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
@@ -3087,6 +3373,14 @@
       <c r="Q102" s="4"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
@@ -3559,8 +3853,33 @@
       <c r="P145" s="4"/>
       <c r="Q145" s="4"/>
     </row>
+    <row r="146" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
+    </row>
+    <row r="147" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>